--- a/code/jupyter/Problem3.xlsx
+++ b/code/jupyter/Problem3.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmackenz/Development/SimCenter/SimCenterBootcamp2020/presentations/Python Quickstart Tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel Suselo\SimCenterBootcamp2020\code\jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2A32FB-7D4F-604E-B02D-1C4EFBC66DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9E158-2B81-437C-BD8A-E3C99C0AC6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20500" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">mySheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">mySheet!$B$2:$B$501</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">mySheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">mySheet!$C$2:$C$501</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">mySheet!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">mySheet!$B$2:$B$501</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">mySheet!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">mySheet!$C$2:$C$501</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -130,77 +120,26 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>mySheet!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3220,10 +3159,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F475-0142-A988-A1DA8F7A2A8A}"/>
+              <c16:uniqueId val="{00000000-4065-4379-A7A9-570BFB51C25A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3235,11 +3174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372154144"/>
-        <c:axId val="372155776"/>
+        <c:axId val="1133411952"/>
+        <c:axId val="1133179792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372154144"/>
+        <c:axId val="1133411952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,12 +3235,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372155776"/>
+        <c:crossAx val="1133179792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372155776"/>
+        <c:axId val="1133179792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,7 +3297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372154144"/>
+        <c:crossAx val="1133411952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3372,6 +3311,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3967,23 +3913,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08083E7-0852-644A-9E88-6C447186B274}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1C4DAE-992A-41A9-8E98-51C58AAE5F74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4328,12 +4274,12 @@
   <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4341,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4352,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4363,7 +4309,7 @@
         <v>6.3312292371528883E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4374,7 +4320,7 @@
         <v>0.12716436093274711</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4385,7 +4331,7 @@
         <v>0.1912984977208162</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4396,7 +4342,7 @@
         <v>0.25545276292478608</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4407,7 +4353,7 @@
         <v>0.31936205376045368</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4418,7 +4364,7 @@
         <v>0.38275919809494863</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4429,7 +4375,7 @@
         <v>0.44537606831656762</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4440,7 +4386,7 @@
         <v>0.50694471081743375</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4451,7 +4397,7 @@
         <v>0.56719848634782521</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4462,7 +4408,7 @@
         <v>0.625873216412136</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4473,7 +4419,7 @@
         <v>0.68270833080791538</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4484,7 +4430,7 @@
         <v>0.73744801136173754</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4495,7 +4441,7 @@
         <v>0.78984232688914213</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4506,7 +4452,7 @@
         <v>0.83964835440082486</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4517,7 +4463,7 @@
         <v>0.88663128159382498</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4528,7 +4474,7 @@
         <v>0.93056548570473163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4539,7 +4485,7 @@
         <v>0.97123558386192244</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4550,7 +4496,7 @@
         <v>1.0084374501554281</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4561,7 +4507,7 @@
         <v>1.0419791947459971</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4572,7 +4518,7 @@
         <v>1.07168210045903</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4583,7 +4529,7 @@
         <v>1.0973815124538631</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4594,7 +4540,7 @@
         <v>1.11892767672393</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4605,7 +4551,7 @@
         <v>1.1361865233680499</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4616,7 +4562,7 @@
         <v>1.1490403907768001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4627,7 +4573,7 @@
         <v>1.1573886870999599</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4638,7 +4584,7 @@
         <v>1.1611484856003711</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4649,7 +4595,7 @@
         <v>1.1602550507555309</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4660,7 +4606,7 @@
         <v>1.1546622922396901</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4671,7 +4617,7 @@
         <v>1.144343144205112</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4682,7 +4628,7 @@
         <v>1.1292898675804519</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4693,7 +4639,7 @@
         <v>1.109514273415539</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4704,7 +4650,7 @@
         <v>1.08504786562413</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4715,7 +4661,7 @@
         <v>1.055941901807997</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4726,7 +4672,7 @@
         <v>1.022267371185706</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4737,7 +4683,7 @@
         <v>0.98411488899623323</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4748,7 +4694,7 @@
         <v>0.94159450709968018</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4759,7 +4705,7 @@
         <v>0.8948354408533461</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4770,7 +4716,7 @@
         <v>0.84398571269972034</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4781,7 +4727,7 @@
         <v>0.78921171326215533</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4792,7 +4738,7 @@
         <v>0.7306976811023963</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4803,7 +4749,7 @@
         <v>0.66864510265037547</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4814,7 +4760,7 @@
         <v>0.60327203416904074</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4825,7 +4771,7 @@
         <v>0.53481234796406996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4836,7 +4782,7 @@
         <v>0.46351490538849172</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4847,7 +4793,7 @@
         <v>0.38964265952404942</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4858,7 +4804,7 @@
         <v>0.31347169074311881</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4869,7 +4815,7 @@
         <v>0.23529017866562399</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4880,7 +4826,7 @@
         <v>0.15539731432337339</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4891,7 +4837,7 @@
         <v>7.4102156628090318E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4902,7 +4848,7 @@
         <v>-8.2775624920714691E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4913,7 +4859,7 @@
         <v>-9.1416679670887999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4924,7 +4870,7 @@
         <v>-0.17498388354663391</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4935,7 +4881,7 @@
         <v>-0.25864303500308272</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4946,7 +4892,7 @@
         <v>-0.34205451894810412</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4957,7 +4903,7 @@
         <v>-0.42487662219485428</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4968,7 +4914,7 @@
         <v>-0.50676693185831401</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4979,7 +4925,7 @@
         <v>-0.58738374855025444</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4990,7 +4936,7 @@
         <v>-0.66638750854944506</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5001,7 +4947,7 @@
         <v>-0.74344220904159064</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5012,7 +4958,7 @@
         <v>-0.81821683046560145</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5023,7 +4969,7 @@
         <v>-0.890386749969865</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5034,7 +4980,7 @@
         <v>-0.95963513997435335</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5045,7 +4991,7 @@
         <v>-1.025654345852048</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5056,7 +5002,7 @@
         <v>-1.0881472367862091</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5067,7 +5013,7 @@
         <v>-1.1468285239286</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5078,7 +5024,7 @@
         <v>-1.2014260400776671</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5089,7 +5035,7 @@
         <v>-1.251681975214699</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5100,7 +5046,7 @@
         <v>-1.2973540623797899</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5111,7 +5057,7 @@
         <v>-1.33821670853757</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5122,7 +5068,7 @@
         <v>-1.3740620652745481</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5133,7 +5079,7 @@
         <v>-1.4047010343849859</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5144,7 +5090,7 @@
         <v>-1.4299642036395821</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5155,7 +5101,7 @@
         <v>-1.449702708290155</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5166,7 +5112,7 @@
         <v>-1.4637890141429659</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5177,7 +5123,7 @@
         <v>-1.472117618332254</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5188,7 +5134,7 @@
         <v>-1.474605664242876</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5199,7 +5145,7 @@
         <v>-1.471193467365375</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5210,7 +5156,7 @@
         <v>-1.4618449492171031</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5221,7 +5167,7 @@
         <v>-1.4465479768277429</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5232,7 +5178,7 @@
         <v>-1.425314605665349</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5243,7 +5189,7 @@
         <v>-1.3981812242682701</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5254,7 +5200,7 @@
         <v>-1.3652085992475029</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5265,7 +5211,7 @@
         <v>-1.326481819731538</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5276,7 +5222,7 @@
         <v>-1.282110140739892</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5287,7 +5233,7 @@
         <v>-1.2322267253906249</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5298,7 +5244,7 @@
         <v>-1.176988286269433</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5309,7 +5255,7 @@
         <v>-1.116574626711655</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5320,7 +5266,7 @@
         <v>-1.0511880831719771</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5331,7 +5277,7 @@
         <v>-0.98105287027792565</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5342,7 +5288,7 @@
         <v>-0.90641433058066845</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5353,7 +5299,7 @@
         <v>-0.82753809142840629</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5364,7 +5310,7 @@
         <v>-0.74470913179192832</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5375,7 +5321,7 @@
         <v>-0.65823076226706856</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5386,7 +5332,7 @@
         <v>-0.56842352186298017</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5397,7 +5343,7 @@
         <v>-0.47562399555682278</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5408,7 +5354,7 @@
         <v>-0.38018355695282652</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5419,7 +5365,7 @@
         <v>-0.28246704072534878</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5430,7 +5376,7 @@
         <v>-0.18285134984975179</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5441,7 +5387,7 @@
         <v>-8.1724002930395417E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5452,7 +5398,7 @@
         <v>2.051837277971464E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5463,7 +5409,7 @@
         <v>0.1234715968094077</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5474,7 +5420,7 @@
         <v>0.22672553325074291</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5485,7 +5431,7 @@
         <v>0.3298657245751247</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5496,7 +5442,7 @@
         <v>0.4324750549758416</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5507,7 +5453,7 @@
         <v>0.53413543656263318</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5518,7 +5464,7 @@
         <v>0.63442951159447758</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5529,7 +5475,7 @@
         <v>0.73294236382500733</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5540,7 +5486,7 @@
         <v>0.82926323195124751</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5551,7 +5497,7 @@
         <v>0.92298721810138273</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5562,7 +5508,7 @@
         <v>1.0137169842713489</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5573,7 +5519,7 @@
         <v>1.101064429623462</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5584,7 +5530,7 @@
         <v>1.1846523415932919</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5595,7 +5541,7 @@
         <v>1.2641160138135299</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5606,7 +5552,7 @@
         <v>1.3391048239555721</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5617,7 +5563,7 @@
         <v>1.4092837647109011</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5628,7 +5574,7 @@
         <v>1.4743349212845009</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5639,7 +5585,7 @@
         <v>1.5339588889513189</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5650,7 +5596,7 @@
         <v>1.5878761244333739</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5661,7 +5607,7 @@
         <v>1.635828225088986</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5672,7 +5618,7 @@
         <v>1.677579130165787</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5683,7 +5629,7 @@
         <v>1.7129162386549499</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5694,7 +5640,7 @@
         <v>1.74165143859414</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5705,7 +5651,7 @@
         <v>1.7636220430001699</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5716,7 +5662,7 @@
         <v>1.778691627967756</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5727,7 +5673,7 @@
         <v>1.786750768846894</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5738,7 +5684,7 @@
         <v>1.7877176708067739</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5749,7 +5695,7 @@
         <v>1.7815386905071591</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5760,7 +5706,7 @@
         <v>1.7681887460273391</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5771,7 +5717,7 @@
         <v>1.747671612646303</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5782,7 +5728,7 @@
         <v>1.720020102523941</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5793,7 +5739,7 @@
         <v>1.6852961268000599</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5804,7 +5750,7 @@
         <v>1.643590639103965</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5815,7 +5761,7 @@
         <v>1.595023459950206</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5826,7 +5772,7 @@
         <v>1.5397429819841451</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5837,7 +5783,7 @@
         <v>1.477925756531931</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5848,7 +5794,7 @@
         <v>1.4097759624015671</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5859,7 +5805,7 @@
         <v>1.3355247583727581</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5870,7 +5816,7 @@
         <v>1.255429521301197</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5881,7 +5827,7 @@
         <v>1.169772972245843</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5892,7 +5838,7 @@
         <v>1.078862193503477</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5903,7 +5849,7 @@
         <v>0.98302753990148228</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5914,7 +5860,7 @@
         <v>0.88262144815522037</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5925,7 +5871,7 @@
         <v>0.77801714853889592</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5936,7 +5882,7 @@
         <v>0.66960728354612742</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5947,7 +5893,7 @@
         <v>0.55780243862718715</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5958,7 +5904,7 @@
         <v>0.44302959048176349</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5969,7 +5915,7 @@
         <v>0.32573047875778488</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5980,7 +5926,7 @@
         <v>0.20635990735647561</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5991,7 +5937,7 @@
         <v>8.5383981869879458E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6002,7 +5948,7 @@
         <v>-3.6721710021891243E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6013,7 +5959,7 @@
         <v>-0.15947396809184081</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6024,7 +5970,7 @@
         <v>-0.28238389169696432</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6035,7 +5981,7 @@
         <v>-0.40495882693214968</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6046,7 +5992,7 @@
         <v>-0.52670434105227248</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6057,7 +6003,7 @@
         <v>-0.6471262162506064</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6068,7 +6014,7 @@
         <v>-0.76573245475613116</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6079,7 +6025,7 @@
         <v>-0.88203528711927459</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6090,7 +6036,7 @@
         <v>-0.9955531754954936</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6101,7 +6047,7 @@
         <v>-1.1058128037093571</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6112,7 +6058,7 @@
         <v>-1.212351045888721</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6123,7 +6069,7 @@
         <v>-1.314716905499294</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6134,7 +6080,7 @@
         <v>-1.4124734166845681</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6145,7 +6091,7 @@
         <v>-1.505199499924214</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6156,7 +6102,7 @@
         <v>-1.592491764165924</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6167,7 +6113,7 @@
         <v>-1.6739662477603601</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6178,7 +6124,7 @@
         <v>-1.749260090736144</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6189,7 +6135,7 @@
         <v>-1.8180331311908831</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6200,7 +6146,7 @@
         <v>-1.879969418844293</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6211,7 +6157,7 @@
         <v>-1.9347786390995561</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6222,7 +6168,7 @@
         <v>-1.9821974412881631</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6233,7 +6179,7 @@
         <v>-2.021990665130259</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6244,7 +6190,7 @@
         <v>-2.0539524598258549</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6255,7 +6201,7 @@
         <v>-2.077907290600459</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6266,7 +6212,7 @@
         <v>-2.0937108279604941</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6277,7 +6223,7 @@
         <v>-2.101250715367303</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6288,7 +6234,7 @@
         <v>-2.100447211512193</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6299,7 +6245,7 @@
         <v>-2.0912537038666521</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6310,7 +6256,7 @@
         <v>-2.073657090689998</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6321,7 +6267,7 @@
         <v>-2.0476780291989418</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6332,7 +6278,7 @@
         <v>-2.0133710481381208</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6343,7 +6289,7 @@
         <v>-1.9708245235351529</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6354,7 +6300,7 @@
         <v>-1.920160516976253</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6365,7 +6311,7 @@
         <v>-1.8615344762964741</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6376,7 +6322,7 @@
         <v>-1.7951347991401361</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6387,7 +6333,7 @@
         <v>-1.721182260409488</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6398,7 +6344,7 @@
         <v>-1.6399293051810471</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6409,7 +6355,7 @@
         <v>-1.551659209226796</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6420,7 +6366,7 @@
         <v>-1.4566851098294049</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6431,7 +6377,7 @@
         <v>-1.3553489101245151</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6442,7 +6388,7 @@
         <v>-1.248020060736436</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6453,7 +6399,7 @@
         <v>-1.1350942229945671</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6464,7 +6410,7 @@
         <v>-1.016991818523608</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6475,7 +6421,7 @@
         <v>-0.89415647048970015</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6486,7 +6432,7 @@
         <v>-0.7670533422544058</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6497,7 +6443,7 @@
         <v>-0.63616737963723413</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6508,7 +6454,7 @@
         <v>-0.50200146341307095</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6519,7 +6465,7 @@
         <v>-0.36507447907166057</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6530,7 +6476,7 @@
         <v>-0.22591931124039941</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6541,7 +6487,7 @@
         <v>-8.5080770517361237E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6552,7 +6498,7 @@
         <v>5.6886539222545163E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6563,7 +6509,7 @@
         <v>0.19942040470103431</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6574,7 +6520,7 @@
         <v>0.34195322969035258</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6585,7 +6531,7 @@
         <v>0.48391429523053447</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6596,7 +6542,7 @@
         <v>0.62473204460984411</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6607,7 +6553,7 @@
         <v>0.76383638396103093</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6618,7 +6564,7 @@
         <v>0.90066098921543125</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6629,7 +6575,7 @@
         <v>1.034645610083565</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6640,7 +6586,7 @@
         <v>1.1652383616953459</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6651,7 +6597,7 @@
         <v>1.2918979945353071</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6662,7 +6608,7 @@
         <v>1.4140961333490609</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6673,7 +6619,7 @@
         <v>1.531319475776034</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6684,7 +6630,7 @@
         <v>1.6430719415805799</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6695,7 +6641,7 @@
         <v>1.7488767635084099</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6706,7 +6652,7 @@
         <v>1.8482785109874971</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6717,7 +6663,7 @@
         <v>1.9408450381215741</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6728,7 +6674,7 @@
         <v>2.0261693476893039</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6739,7 +6685,7 @@
         <v>2.1038713631622952</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6750,7 +6696,7 @@
         <v>2.1735996010891521</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6761,7 +6707,7 @@
         <v>2.2350327365597149</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6772,7 +6718,7 @@
         <v>2.287881054862023</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6783,7 +6729,7 @@
         <v>2.3318877828728901</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6794,7 +6740,7 @@
         <v>2.3668302941798331</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6805,7 +6751,7 @@
         <v>2.3925211824154791</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6816,7 +6762,7 @@
         <v>2.4088091977938881</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6827,7 +6773,7 @@
         <v>2.415580042369331</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6838,7 +6784,7 @@
         <v>2.4127570200899831</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6849,7 +6795,7 @@
         <v>2.4003015382895478</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6860,7 +6806,7 @@
         <v>2.378213457846766</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6871,7 +6817,7 @@
         <v>2.346531289843818</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6882,7 +6828,7 @@
         <v>2.3053322371673399</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6893,7 +6839,7 @@
         <v>2.2547320801177171</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6904,7 +6850,7 @@
         <v>2.194884905721072</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6915,7 +6861,7 @@
         <v>2.1259826810712861</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6926,7 +6872,7 @@
         <v>2.048254671663976</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6937,7 +6883,7 @@
         <v>1.9619667063180279</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6948,7 +6894,7 @@
         <v>1.8674202909104149</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6959,7 +6905,7 @@
         <v>1.7649515737741579</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6970,7 +6916,7 @@
         <v>1.6549301662245699</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6981,7 +6927,7 @@
         <v>1.5377578222831889</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6992,7 +6938,7 @@
         <v>1.4138669822591861</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7003,7 +6949,7 @@
         <v>1.283719185422312</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7014,7 +6960,7 @@
         <v>1.147803357557047</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7025,7 +6971,7 @@
         <v>1.0066339797223089</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7036,7 +6982,7 @@
         <v>0.86074914505252298</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7047,7 +6993,7 @@
         <v>0.71070851092179022</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7058,7 +7004,7 @@
         <v>0.55709115425154476</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7069,7 +7015,7 @@
         <v>0.40049333817092803</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7080,7 +7026,7 @@
         <v>0.24152619863682009</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7091,7 +7037,7 @@
         <v>8.0813359984902827E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7102,7 +7048,7 @@
         <v>-8.1011511287174043E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7113,7 +7059,7 @@
         <v>-0.24330720491002561</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7124,7 +7070,7 @@
         <v>-0.40542750755587897</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7135,7 +7081,7 @@
         <v>-0.56672377580775624</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7146,7 +7092,7 @@
         <v>-0.72654753114024184</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7157,7 +7103,7 @@
         <v>-0.88425306653114211</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7168,7 +7114,7 @@
         <v>-1.0392000542287401</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7179,7 +7125,7 @@
         <v>-1.190756144146587</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7190,7 +7136,7 @@
         <v>-1.3382995423476129</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7201,7 +7147,7 @@
         <v>-1.4812215591118789</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7212,7 +7158,7 @@
         <v>-1.6189291161575969</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7223,7 +7169,7 @@
         <v>-1.750847202702986</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7234,7 +7180,7 @@
         <v>-1.8764212702168881</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7245,7 +7191,7 @@
         <v>-1.995119555908228</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7256,7 +7202,7 @@
         <v>-2.1064353252479062</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7267,7 +7213,7 @@
         <v>-2.2098890241005851</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7278,7 +7224,7 @@
         <v>-2.305030331367222</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7289,7 +7235,7 @@
         <v>-2.391440103400825</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7300,7 +7246,7 @@
         <v>-2.468732201856747</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7311,7 +7257,7 @@
         <v>-2.536555197072873</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7322,7 +7268,7 @@
         <v>-2.5945939395434592</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7333,7 +7279,7 @@
         <v>-2.6425709925506462</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7344,7 +7290,7 @@
         <v>-2.6802479195483788</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7355,7 +7301,7 @@
         <v>-2.7074264204524292</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7366,7 +7312,7 @@
         <v>-2.723949311575228</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7377,7 +7323,7 @@
         <v>-2.729701344553201</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7388,7 +7334,7 @@
         <v>-2.7246098602446338</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7399,7 +7345,7 @@
         <v>-2.708645274225558</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -7410,7 +7356,7 @@
         <v>-2.6818213911769879</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7421,7 +7367,7 @@
         <v>-2.6441955461365811</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -7432,7 +7378,7 @@
         <v>-2.5958685712785652</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7443,7 +7389,7 @@
         <v>-2.536984587585049</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -7454,7 +7400,7 @@
         <v>-2.4677306214765311</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -7465,7 +7411,7 @@
         <v>-2.3883360471769759</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -7476,7 +7422,7 @@
         <v>-2.2990718562961741</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -7487,7 +7433,7 @@
         <v>-2.2002497568165178</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7498,7 +7444,7 @@
         <v>-2.092221104369747</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7509,7 +7455,7 @@
         <v>-1.9753756693791891</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7520,7 +7466,7 @@
         <v>-1.8501402443210719</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7531,7 +7477,7 @@
         <v>-1.7169770960224979</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7542,7 +7488,7 @@
         <v>-1.576382268560395</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7553,7 +7499,7 @@
         <v>-1.428883742952779</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7564,7 +7510,7 @@
         <v>-1.275039460438214</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7575,7 +7521,7 @@
         <v>-1.1154352167189521</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7586,7 +7532,7 @@
         <v>-0.95068243509546035</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7597,7 +7543,7 @@
         <v>-0.78141582694244371</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7608,7 +7554,7 @@
         <v>-0.60829094846690046</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7619,7 +7565,7 @@
         <v>-0.43198166314507019</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7630,7 +7576,7 @@
         <v>-0.25317751965531732</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7641,7 +7587,7 @@
         <v>-7.2581055506239917E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7652,7 +7598,7 @@
         <v>0.10909496309811979</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7663,7 +7609,7 @@
         <v>0.29113035431272088</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7674,7 +7620,7 @@
         <v>0.47280037552360438</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7685,7 +7631,7 @@
         <v>0.65337860872055431</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7696,7 +7642,7 @@
         <v>0.83213986488339953</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7707,7 +7653,7 @@
         <v>1.0083630957702761</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7718,7 +7664,7 @@
         <v>1.1813343014185811</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7729,7 +7675,7 @@
         <v>1.350349421638104</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7740,7 +7686,7 @@
         <v>1.514717199792059</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7751,7 +7697,7 @@
         <v>1.673762007225343</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7762,7 +7708,7 @@
         <v>1.8268266168101079</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7773,7 +7719,7 @@
         <v>1.973274914236683</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7784,7 +7730,7 @@
         <v>2.1124945358822518</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7795,7 +7741,7 @@
         <v>2.2438994223401139</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7806,7 +7752,7 @@
         <v>2.3669322769878112</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7817,7 +7763,7 @@
         <v>2.481066919311941</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7828,7 +7774,7 @@
         <v>2.5858105230899682</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7839,7 +7785,7 @@
         <v>2.6807057299532291</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7850,7 +7796,7 @@
         <v>2.7653326293192522</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7861,7 +7807,7 @@
         <v>2.8393105961836631</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7872,7 +7818,7 @@
         <v>2.9022999788003818</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7883,7 +7829,7 @@
         <v>2.9540036288516371</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7894,7 +7840,7 @@
         <v>2.9941682673143051</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7905,7 +7851,7 @@
         <v>3.0225856798637061</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7916,7 +7862,7 @@
         <v>3.0390937363182222</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7927,7 +7873,7 @@
         <v>3.043577229314927</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7938,7 +7884,7 @@
         <v>3.0359685281154452</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7949,7 +7895,7 @@
         <v>3.0162480441696</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7960,7 +7906,7 @@
         <v>2.9844445058092082</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -7971,7 +7917,7 @@
         <v>2.9406350402026851</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -7982,7 +7928,7 @@
         <v>2.884945061469959</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -7993,7 +7939,7 @@
         <v>2.8175479646334041</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8004,7 +7950,7 @@
         <v>2.738664625861134</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8015,7 +7961,7 @@
         <v>2.648562710240697</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8026,7 +7972,7 @@
         <v>2.5475557891010818</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8037,7 +7983,7 @@
         <v>2.4360022696755439</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8048,7 +7994,7 @@
         <v>2.3143041406642499</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8059,7 +8005,7 @@
         <v>2.1829055380106692</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8070,7 +8016,7 @@
         <v>2.0422911359462028</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8081,7 +8027,7 @@
         <v>1.8929843690804911</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8092,7 +8038,7 @@
         <v>1.735545492017347</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8103,7 +8049,7 @@
         <v>1.5705694836551229</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8114,7 +8060,7 @@
         <v>1.3986838039833229</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8125,7 +8071,7 @@
         <v>1.2205460118107689</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8136,7 +8082,7 @@
         <v>1.0368412524528821</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8147,7 +8093,7 @@
         <v>0.84827962496357778</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8158,7 +8104,7 @@
         <v>0.655593439018748</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8169,7 +8115,7 @@
         <v>0.45953437204097702</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8180,7 +8126,7 @@
         <v>0.26087053759701478</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8191,7 +8137,7 @@
         <v>6.0383476498571051E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8202,7 +8148,7 @@
         <v>-0.14113491760849881</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8213,7 +8159,7 @@
         <v>-0.34288552607319001</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8224,7 +8170,7 @@
         <v>-0.54406517413232747</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8235,7 +8181,7 @@
         <v>-0.74386982830133552</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8246,7 +8192,7 @@
         <v>-0.94149780953445494</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8257,7 +8203,7 @@
         <v>-1.1361530093145751</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8268,7 +8214,7 @@
         <v>-1.327048095772666</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8279,7 +8225,7 @@
         <v>-1.513407696928369</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8290,7 +8236,7 @@
         <v>-1.6944715481867201</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8301,7 +8247,7 @@
         <v>-1.86949759132172</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8312,7 +8258,7 @@
         <v>-2.0377650123243232</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8323,7 +8269,7 @@
         <v>-2.1985772056914561</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8334,7 +8280,7 @@
         <v>-2.351264652981826</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8345,7 +8291,7 @@
         <v>-2.495187703763686</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8356,7 +8302,7 @@
         <v>-2.6297392474279802</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8367,7 +8313,7 @@
         <v>-2.7543472647361589</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8378,7 +8324,7 @@
         <v>-2.868477248414226</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8389,7 +8335,7 @@
         <v>-2.9716344825913059</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8400,7 +8346,7 @@
         <v>-3.0633661714107729</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8411,7 +8357,7 @@
         <v>-3.1432634077124622</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8422,7 +8368,7 @@
         <v>-3.2109629732937259</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8433,7 +8379,7 @@
         <v>-3.2661489629027591</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8444,7 +8390,7 @@
         <v>-3.3085542247970872</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -8455,7 +8401,7 @@
         <v>-3.3379616114110369</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -8466,7 +8412,7 @@
         <v>-3.3542050344153309</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -8477,7 +8423,7 @@
         <v>-3.3571703192170439</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -8488,7 +8434,7 @@
         <v>-3.3467958547358712</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -8499,7 +8445,7 @@
         <v>-3.323073035099994</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -8510,7 +8456,7 @@
         <v>-3.2860464907285269</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -8521,7 +8467,7 @@
         <v>-3.2358141071043871</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -8532,7 +8478,7 @@
         <v>-3.172526830388124</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -8543,7 +8489,7 @@
         <v>-3.096388259876298</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -8554,7 +8500,7 @@
         <v>-3.0076540281641839</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -8565,7 +8511,7 @@
         <v>-2.9066309707282518</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -8576,7 +8522,7 @@
         <v>-2.7936760874957312</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -8587,7 +8533,7 @@
         <v>-2.669195299813135</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -8598,7 +8544,7 @@
         <v>-2.5336420070593979</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -8609,7 +8555,7 @@
         <v>-2.3875154479689842</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -8620,7 +8566,7 @@
         <v>-2.231358872532498</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -8631,7 +8577,7 @@
         <v>-2.0657575311237961</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -8642,7 +8588,7 @@
         <v>-1.8913364882599899</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -8653,7 +8599,7 @@
         <v>-1.708758269131101</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -8664,7 +8610,7 @@
         <v>-1.518720347736221</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -8675,7 +8621,7 @@
         <v>-1.3219524861302001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -8686,7 +8632,7 @@
         <v>-1.1192139349159771</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -8697,7 +8643,7 @@
         <v>-0.91129050571048398</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -8708,7 +8654,7 @@
         <v>-0.69899152686336607</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -8719,7 +8665,7 @@
         <v>-0.48314669421634948</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -8730,7 +8676,7 @@
         <v>-0.26460282915323691</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -8741,7 +8687,7 @@
         <v>-4.4220556605673943E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -8752,7 +8698,7 @@
         <v>0.17712908395479579</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -8763,7 +8709,7 @@
         <v>0.39856808119352027</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -8774,7 +8720,7 @@
         <v>0.61921493465169741</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -8785,7 +8731,7 @@
         <v>0.83818816373281246</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -8796,7 +8742,7 @@
         <v>1.054609828968637</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -8807,7 +8753,7 @@
         <v>1.2676090514992491</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -8818,7 +8764,7 @@
         <v>1.4763255166600879</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -8829,7 +8775,7 @@
         <v>1.679912947584155</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -8840,7 +8786,7 @@
         <v>1.8775425347992301</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -8851,7 +8797,7 @@
         <v>2.068406307928301</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -8862,7 +8808,7 @@
         <v>2.2517204357859741</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -8873,7 +8819,7 @@
         <v>2.4267284414039039</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -8884,7 +8830,7 @@
         <v>2.5927043188134502</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -8895,7 +8841,7 @@
         <v>2.7489555387627882</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -8906,7 +8852,7 @@
         <v>2.8948259309476518</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -8917,7 +8863,7 @@
         <v>3.029698430787569</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -8928,7 +8874,7 @@
         <v>3.1529976792823402</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -8939,7 +8885,7 @@
         <v>3.2641924650336982</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -8950,7 +8896,7 @@
         <v>3.362797998113086</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -8961,7 +8907,7 @@
         <v>3.4483780060959939</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -8972,7 +8918,7 @@
         <v>3.5205466432636858</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -8983,7 +8929,7 @@
         <v>3.578970204692042</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -8994,7 +8940,7 @@
         <v>3.6233686377017289</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -9005,7 +8951,7 @@
         <v>3.6535168439311452</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -9016,7 +8962,7 @@
         <v>3.66924576611046</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -9027,7 +8973,7 @@
         <v>3.670443254458521</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -9038,7 +8984,7 @@
         <v>3.6570547084908611</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -9049,7 +8995,7 @@
         <v>3.629083490913485</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -9060,7 +9006,7 @@
         <v>3.5865911111796649</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -9071,7 +9017,7 @@
         <v>3.5296971772022969</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -9082,7 +9028,7 @@
         <v>3.458579114638785</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -9093,7 +9039,7 @@
         <v>3.3734716540951548</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -9104,7 +9050,7 @@
         <v>3.2746660875274851</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -9115,7 +9061,7 @@
         <v>3.1625092960481749</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -9126,7 +9072,7 @@
         <v>3.0374025522680119</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -9137,7 +9083,7 @@
         <v>2.899800101218986</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -9148,7 +9094,7 @@
         <v>2.7502075248035749</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -9159,7 +9105,7 @@
         <v>2.589179895599957</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -9170,7 +9116,7 @@
         <v>2.417319726715971</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -9181,7 +9127,7 @@
         <v>2.235274725223825</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -9192,7 +9138,7 @@
         <v>2.0437353575193349</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -9203,7 +9149,7 @@
         <v>1.8434322357303281</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -9214,7 +9160,7 @@
         <v>1.6351333350456769</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -9225,7 +9171,7 @@
         <v>1.419641052546007</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -9236,7 +9182,7 @@
         <v>1.197789118786597</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -9247,7 +9193,7 @@
         <v>0.97043937400942082</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -9258,7 +9204,7 @@
         <v>0.73847842144214659</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -9269,7 +9215,7 @@
         <v>0.50281417067459822</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -9280,7 +9226,7 @@
         <v>0.26437228458552298</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -9291,7 +9237,7 @@
         <v>2.409254372231397E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -9302,7 +9248,7 @@
         <v>-0.21707485758814621</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -9313,7 +9259,7 @@
         <v>-0.4581730688002692</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -9324,7 +9270,7 @@
         <v>-0.69824237952262047</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -9335,7 +9281,7 @@
         <v>-0.93632403964070043</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -9346,7 +9292,7 @@
         <v>-1.1714640879839029</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -9357,7 +9303,7 @@
         <v>-1.402717174248207</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -9368,7 +9314,7 @@
         <v>-1.6291503588644149</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -9379,7 +9325,7 @@
         <v>-1.849846875541316</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -9390,7 +9336,7 @@
         <v>-2.063909841314103</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -9401,7 +9347,7 @@
         <v>-2.270465899090456</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -9412,7 +9358,7 @@
         <v>-2.4686687779094449</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -9423,7 +9369,7 @@
         <v>-2.6577027564111861</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -9434,7 +9380,7 @@
         <v>-2.8367860153568909</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -9445,7 +9391,7 @@
         <v>-3.0051738654386271</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -9456,7 +9402,7 @@
         <v>-3.1621618370740712</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -9467,7 +9413,7 @@
         <v>-3.3070886193923399</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -9478,7 +9424,7 @@
         <v>-3.4393388361806392</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -9489,7 +9435,7 @@
         <v>-3.558345647175909</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -9500,7 +9446,7 @@
         <v>-3.66359316374851</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -9511,7 +9457,7 @@
         <v>-3.7546186687339791</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -9522,7 +9468,7 @@
         <v>-3.8310146309207802</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -9533,7 +9479,7 @@
         <v>-3.8924305054946999</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -9544,7 +9490,7 @@
         <v>-3.938574312570176</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -9555,7 +9501,7 @@
         <v>-3.9692139868027989</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -9566,7 +9512,7 @@
         <v>-3.9841784919718699</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -9577,7 +9523,7 @@
         <v>-3.9833586953437239</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -9588,7 +9534,7 @@
         <v>-3.966707997572072</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -9599,7 +9545,7 @@
         <v>-3.9342427148569712</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -9610,7 +9556,7 @@
         <v>-3.8860422110655621</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -9621,7 +9567,7 @@
         <v>-3.8222487785113479</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -9632,7 +9578,7 @@
         <v>-3.7430672670907992</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -9643,7 +9589,7 @@
         <v>-3.6487644624822129</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -9654,7 +9600,7 @@
         <v>-3.5396682151182208</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -9665,7 +9611,7 @@
         <v>-3.4161663226460011</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -9676,7 +9622,7 @@
         <v>-3.2787051695839788</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -9687,7 +9633,7 @@
         <v>-3.127788128866873</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -9698,7 +9644,7 @@
         <v>-2.9639737309380081</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -9709,7 +9655,7 @@
         <v>-2.7878736069951309</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -9720,7 +9666,7 @@
         <v>-2.6001502139199961</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -9731,7 +9677,7 @@
         <v>-2.4015143493180671</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -9742,7 +9688,7 @@
         <v>-2.1927224659602769</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -9753,7 +9699,7 @@
         <v>-1.974573795749351</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -9764,7 +9710,7 @@
         <v>-1.747907294125943</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -9775,7 +9721,7 @@
         <v>-1.5135984165811289</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -9786,7 +9732,7 @@
         <v>-1.272555739648634</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -9797,7 +9743,7 @@
         <v>-1.0257174394095789</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -9808,7 +9754,7 @@
         <v>-0.77404764115167701</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -9819,7 +9765,7 @@
         <v>-0.51853265438117646</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -9830,7 +9776,7 @@
         <v>-0.26017710788696319</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
